--- a/c.xlsx
+++ b/c.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Electronics\mynotes\学习笔记\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Electronics\mynotes\学习笔记\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE146C6-3F64-4F95-B9AB-C48652DA0159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2006352E-1319-4D04-AC96-1A99B86D07C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B9721284-E0E8-428D-AA10-DD4272526D9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{B9721284-E0E8-428D-AA10-DD4272526D9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="C语言" sheetId="1" r:id="rId1"/>
+    <sheet name="GO环境" sheetId="1" r:id="rId1"/>
+    <sheet name="Java" sheetId="4" r:id="rId2"/>
+    <sheet name="Linux内核" sheetId="2" r:id="rId3"/>
+    <sheet name="easyx" sheetId="3" r:id="rId4"/>
+    <sheet name="git" sheetId="5" r:id="rId5"/>
+    <sheet name="网络" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +55,154 @@
     <t>https://blog.csdn.net/huang_jinjin/article/details/7699992  制作方法
 https://www.cnblogs.com/sixloop/p/7920747.html  使用库的程序设置动态库路径
 https://www.cnblogs.com/wotsen/p/12900221.html  动态加载库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go get无响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/Cl0ud/p/14200074.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go eclipse配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_43103088/article/details/82285167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go 集成环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/liushengxi_root/article/details/87926566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoll实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select源码分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，驱动做到可以唤醒每个文件描述符的进程
+不知道epoll的意义在哪？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_42462202/article/details/95315926
+https://blog.csdn.net/gooogleman/article/details/84572630  推荐文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.shuzhiduo.com/A/Ae5RPEZmzQ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easyx环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用g++ 命令编译easyx程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot 读取指定的配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45804998/article/details/124003379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变.vimrc文件路径
+linux：
+export VIMINIT='source $MYVIMRC'
+export MYVIMRC='~/.vim/my_vimrc'
+上面两个变量都是新增变量。
+windows:
+先改回来
+export MYVIMRC='~/.vimrc'
+更通用的办法是不要改变原有的结构：清空.vimrc，在文件开头加载指定配置文件 source PATH/TO/OTHER/LOCATION/.vimrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim 修改.vimrc路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《网络是如何连接的》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket、socket是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket 只是一块保存信息的内存，保存的信息包括：协议类型、IP、端口、监听状态等。
+对应C函数：int socket(int domain, int type, int protocol);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect，connect和服务端连接OK的情况下，客户端和服务端的连接还是服务端监听的端口号吗？服务端如何区分各个客户端？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_42139800/article/details/125926918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TCP就是一对一的，当一个服务端accept一个客户端时会根据协议、IP等创建一个socket（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个socket里面记录着发送方的IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），然后每次收到信息后，会根据协议上的发送方唤醒对应的socket进程。实在精妙！！！</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +232,15 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -114,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -122,6 +284,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C97BF47-EFA4-4D6E-91DE-54A66A418F11}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -463,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -472,13 +640,296 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://blog.csdn.net/huang_jinjin/article/details/7699992" xr:uid="{45D6A667-1C38-41BB-A12D-900FC3097FF8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{2E623853-B29F-49CC-824A-513CA4F8F14A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{F8BFCF15-BA5D-409E-A4E0-3C3BA9E18CA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5830C5-10E6-4D6B-AA76-4EE557DA3408}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="67.75" customWidth="1"/>
+    <col min="3" max="3" width="28.4140625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1747DE5E-C1A7-4FA9-915D-2AB4643EF24D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42DA701-4263-4431-AC5C-FDDC0D0BB8F1}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F21D519C-E5F2-40A1-96FC-B55A034068F8}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://blog.csdn.net/weixin_42462202/article/details/95315926" xr:uid="{F26A0C7B-53A2-4FB8-98CA-DC39CEADE957}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48246AF-7465-469E-9D21-FAD267D7F903}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.58203125" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="33.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{77DB9F88-19C3-45EB-AA61-6D737BC61408}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D11A77-1FEA-4DA5-80BE-F1EB3F8B4C0D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="45.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="137.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F1E940-523A-4C62-8128-DEEB4B24E36E}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.75" customWidth="1"/>
+    <col min="2" max="2" width="55.9140625" customWidth="1"/>
+    <col min="3" max="3" width="45.25" customWidth="1"/>
+    <col min="4" max="4" width="41.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{BE00A3F6-6E0B-4237-9A41-A15D0A1DE30D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>